--- a/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="102">
   <si>
     <t>rows</t>
   </si>
@@ -46,6 +46,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>In of AUD Bank</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t>Consolidated</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>None Spare parts</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>None 12349</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None In thousands OfAUD nan nan</t>
   </si>
   <si>
@@ -109,13 +121,10 @@
     <t>Current Total nan nan</t>
   </si>
   <si>
-    <t>Total Prepaid and nan nan</t>
-  </si>
-  <si>
-    <t>Total Power purchase agreement nan nan</t>
-  </si>
-  <si>
-    <t>Total Total nan nan</t>
+    <t>Current Prepaid and nan nan</t>
+  </si>
+  <si>
+    <t>Current Power purchase agreement nan nan</t>
   </si>
   <si>
     <t>Property, plant and equipment nan nan Consolidated</t>
@@ -124,6 +133,9 @@
     <t>Property, plant and equipment In of AUD Buildings Leasehold</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Cost at 31 March 2022</t>
   </si>
   <si>
@@ -169,6 +181,9 @@
     <t>Consolidated Total</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None at 31 March 2022</t>
   </si>
   <si>
@@ -208,6 +223,9 @@
     <t>Carrying At 31 March 2023 240,733 52,324 10,568 303,625</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>Cost Balance at 1 April 12022</t>
   </si>
   <si>
@@ -229,28 +247,28 @@
     <t>Carrying Amount Set out below are the carrying of lease liabilities and during the period.</t>
   </si>
   <si>
-    <t>Total In of AUD</t>
-  </si>
-  <si>
-    <t>Total As at1 April 2022</t>
-  </si>
-  <si>
-    <t>Total Addilions</t>
-  </si>
-  <si>
-    <t>Total of interest</t>
-  </si>
-  <si>
-    <t>Total Payme ents</t>
-  </si>
-  <si>
-    <t>Total As 31 March 2023</t>
-  </si>
-  <si>
-    <t>Total Current</t>
-  </si>
-  <si>
-    <t>Total Total</t>
+    <t>Carrying Amount In of AUD</t>
+  </si>
+  <si>
+    <t>Carrying Amount As at1 April 2022</t>
+  </si>
+  <si>
+    <t>Carrying Amount Addilions</t>
+  </si>
+  <si>
+    <t>Carrying Amount of interest</t>
+  </si>
+  <si>
+    <t>Carrying Amount Payme ents</t>
+  </si>
+  <si>
+    <t>Carrying Amount As 31 March 2023</t>
+  </si>
+  <si>
+    <t>Carrying Amount Current</t>
+  </si>
+  <si>
+    <t>Carrying Amount Total</t>
   </si>
   <si>
     <t>Buildings</t>
@@ -268,6 +286,9 @@
     <t>Total</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Balance at 31 March 2022</t>
   </si>
   <si>
@@ -304,10 +325,19 @@
     <t>None Loans from related parties</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>None Interest on financial liabilities measured at am ortised cost</t>
   </si>
   <si>
     <t>None Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -665,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,13 +714,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -698,13 +731,16 @@
       <c r="D2">
         <v>44132</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -712,13 +748,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -726,13 +765,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -740,13 +782,16 @@
       <c r="D5">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -754,13 +799,16 @@
       <c r="D6">
         <v>136509</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -768,41 +816,50 @@
       <c r="D7">
         <v>-98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>2023</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2023</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -810,13 +867,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -824,13 +884,16 @@
       <c r="D11">
         <v>164760</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -838,13 +901,16 @@
       <c r="D12">
         <v>164760</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -852,13 +918,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -866,13 +935,16 @@
       <c r="D14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -880,13 +952,16 @@
       <c r="D15">
         <v>104513</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -894,13 +969,16 @@
       <c r="D16">
         <v>-20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -908,13 +986,16 @@
       <c r="D17">
         <v>104.493</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -922,19 +1003,25 @@
       <c r="D18">
         <v>6210</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>2022</v>
       </c>
       <c r="D19">
         <v>110703</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -956,13 +1043,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,13 +1062,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -989,13 +1079,16 @@
       <c r="D2">
         <v>138939</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1003,13 +1096,16 @@
       <c r="D3">
         <v>10765</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1017,13 +1113,16 @@
       <c r="D4">
         <v>-7936</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1031,13 +1130,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1045,13 +1147,16 @@
       <c r="D6">
         <v>51240</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1059,13 +1164,16 @@
       <c r="D7">
         <v>22768</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1073,13 +1181,16 @@
       <c r="D8">
         <v>-7936</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1087,13 +1198,16 @@
       <c r="D9">
         <v>66072</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1101,13 +1215,16 @@
       <c r="D10">
         <v>87699</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1115,13 +1232,16 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1129,13 +1249,16 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1143,13 +1266,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1157,13 +1283,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1171,13 +1300,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1185,13 +1317,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1199,13 +1334,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1213,13 +1351,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1227,13 +1368,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1241,13 +1385,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1255,13 +1402,16 @@
       <c r="D21">
         <v>251</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1269,13 +1419,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1283,13 +1436,16 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1297,13 +1453,16 @@
       <c r="D24">
         <v>251</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1311,13 +1470,16 @@
       <c r="D25">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -1325,13 +1487,16 @@
       <c r="D26">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1339,13 +1504,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1353,13 +1521,16 @@
       <c r="D28">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1367,13 +1538,16 @@
       <c r="D29">
         <v>162</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -1381,13 +1555,16 @@
       <c r="D30">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1395,13 +1572,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -1409,13 +1589,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -1423,27 +1606,33 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>2023</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="C34">
-        <v>2023</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -1451,13 +1640,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -1465,13 +1657,16 @@
       <c r="D36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -1479,13 +1674,16 @@
       <c r="D37">
         <v>117695</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -1493,13 +1691,16 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -1507,13 +1708,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -1521,13 +1725,16 @@
       <c r="D40">
         <v>381</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -1535,13 +1742,16 @@
       <c r="D41">
         <v>737</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -1549,13 +1759,16 @@
       <c r="D42">
         <v>-25</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1563,13 +1776,16 @@
       <c r="D43">
         <v>1093</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -1577,13 +1793,16 @@
       <c r="D44">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1591,13 +1810,16 @@
       <c r="D45">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -1605,13 +1827,16 @@
       <c r="D46">
         <v>-25</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -1619,13 +1844,16 @@
       <c r="D47">
         <v>147</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -1633,13 +1861,16 @@
       <c r="D48">
         <v>331</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -1647,13 +1878,16 @@
       <c r="D49">
         <v>946</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -1661,13 +1895,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -1675,13 +1912,16 @@
       <c r="D51">
         <v>2023</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -1689,13 +1929,16 @@
       <c r="D52">
         <v>131960</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -1703,13 +1946,16 @@
       <c r="D53">
         <v>11318</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -1717,13 +1963,16 @@
       <c r="D54">
         <v>4265</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -1731,13 +1980,16 @@
       <c r="D55">
         <v>-29848</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>2023</v>
@@ -1745,13 +1997,16 @@
       <c r="D56">
         <v>117695</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -1759,13 +2014,16 @@
       <c r="D57">
         <v>25637</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -1773,13 +2031,16 @@
       <c r="D58">
         <v>92058</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -1787,13 +2048,16 @@
       <c r="D59">
         <v>1950</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -1801,13 +2065,16 @@
       <c r="D60">
         <v>205</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>2023</v>
@@ -1815,13 +2082,16 @@
       <c r="D61">
         <v>-1079</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -1829,13 +2099,16 @@
       <c r="D62">
         <v>1076</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>2022</v>
@@ -1843,13 +2116,16 @@
       <c r="D63">
         <v>1175</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>2023</v>
@@ -1857,13 +2133,16 @@
       <c r="D64">
         <v>556</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>2023</v>
@@ -1871,13 +2150,16 @@
       <c r="D65">
         <v>-1079</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>2023</v>
@@ -1885,13 +2167,16 @@
       <c r="D66">
         <v>652</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C67">
         <v>2022</v>
@@ -1899,13 +2184,16 @@
       <c r="D67">
         <v>775</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>2023</v>
@@ -1913,13 +2201,16 @@
       <c r="D68">
         <v>424</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>2023</v>
@@ -1927,13 +2218,16 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C70">
         <v>2023</v>
@@ -1941,13 +2235,16 @@
       <c r="D70">
         <v>2022</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>2022</v>
@@ -1955,13 +2252,16 @@
       <c r="D71">
         <v>122630</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>2023</v>
@@ -1969,13 +2269,16 @@
       <c r="D72">
         <v>33545</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>2023</v>
@@ -1983,13 +2286,16 @@
       <c r="D73">
         <v>4165</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C74">
         <v>2023</v>
@@ -1997,13 +2303,16 @@
       <c r="D74">
         <v>-28380</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -2011,13 +2320,16 @@
       <c r="D75">
         <v>131960</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>2023</v>
@@ -2025,13 +2337,16 @@
       <c r="D76">
         <v>25250</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C77">
         <v>2023</v>
@@ -2039,13 +2354,16 @@
       <c r="D77">
         <v>106710</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C78">
         <v>2023</v>
@@ -2053,13 +2371,16 @@
       <c r="D78">
         <v>141521</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C79">
         <v>2023</v>
@@ -2067,13 +2388,16 @@
       <c r="D79">
         <v>11707</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C80">
         <v>2023</v>
@@ -2081,13 +2405,16 @@
       <c r="D80">
         <v>-9040</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>2023</v>
@@ -2095,13 +2422,16 @@
       <c r="D81">
         <v>144188</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C82">
         <v>2022</v>
@@ -2109,13 +2439,16 @@
       <c r="D82">
         <v>52554</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>2023</v>
@@ -2123,13 +2456,16 @@
       <c r="D83">
         <v>23507</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>2023</v>
@@ -2137,13 +2473,16 @@
       <c r="D84">
         <v>-9040</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>2023</v>
@@ -2151,13 +2490,16 @@
       <c r="D85">
         <v>67021</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>2022</v>
@@ -2165,13 +2507,16 @@
       <c r="D86">
         <v>88967</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>2023</v>
@@ -2179,13 +2524,16 @@
       <c r="D87">
         <v>77167</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <v>2023</v>
@@ -2193,13 +2541,16 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C89">
         <v>2023</v>
@@ -2207,13 +2558,16 @@
       <c r="D89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C90">
         <v>2022</v>
@@ -2221,69 +2575,84 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91">
+        <v>2023</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>77</v>
       </c>
-      <c r="C91">
-        <v>2023</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>68</v>
-      </c>
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92">
-        <v>2023</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93">
-        <v>2023</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>70</v>
-      </c>
-      <c r="B94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94">
-        <v>2023</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>71</v>
-      </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>2023</v>
@@ -2291,19 +2660,25 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C96">
         <v>2023</v>
       </c>
       <c r="D96">
         <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2313,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,13 +2707,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2346,13 +2724,16 @@
       <c r="D2">
         <v>10.948</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2360,13 +2741,16 @@
       <c r="D3">
         <v>7127</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2374,13 +2758,16 @@
       <c r="D4">
         <v>-7563</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2388,13 +2775,16 @@
       <c r="D5">
         <v>10512</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2402,13 +2792,16 @@
       <c r="D6">
         <v>10448</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2416,13 +2809,16 @@
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2430,13 +2826,16 @@
       <c r="D8">
         <v>10948</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2444,13 +2843,16 @@
       <c r="D9">
         <v>10012</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2458,13 +2860,16 @@
       <c r="D10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2472,13 +2877,16 @@
       <c r="D11">
         <v>10512</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2486,13 +2894,16 @@
       <c r="D12">
         <v>13786</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2500,13 +2911,16 @@
       <c r="D13">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2514,13 +2928,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2528,13 +2945,16 @@
       <c r="D15">
         <v>13909</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2542,13 +2962,16 @@
       <c r="D16">
         <v>4077</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2556,13 +2979,16 @@
       <c r="D17">
         <v>9709</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2570,13 +2996,16 @@
       <c r="D18">
         <v>13786</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2584,13 +3013,16 @@
       <c r="D19">
         <v>1228</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -2598,13 +3030,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -2612,13 +3047,16 @@
       <c r="D21">
         <v>13.909</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -2626,13 +3064,16 @@
       <c r="D22">
         <v>1001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -2640,13 +3081,16 @@
       <c r="D23">
         <v>581</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -2654,13 +3098,16 @@
       <c r="D24">
         <v>-1.001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2668,13 +3115,16 @@
       <c r="D25">
         <v>581</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -2682,13 +3132,16 @@
       <c r="D26">
         <v>1001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -2696,13 +3149,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -2710,13 +3166,16 @@
       <c r="D28">
         <v>1001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -2724,13 +3183,16 @@
       <c r="D29">
         <v>581</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -2738,13 +3200,16 @@
       <c r="D30">
         <v>13181</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -2752,13 +3217,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -2766,13 +3234,16 @@
       <c r="D32">
         <v>25735</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -2780,13 +3251,16 @@
       <c r="D33">
         <v>7831</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -2794,13 +3268,16 @@
       <c r="D34">
         <v>-8564</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -2808,13 +3285,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -2822,13 +3302,16 @@
       <c r="D36">
         <v>15526</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -2836,13 +3319,16 @@
       <c r="D37">
         <v>10209</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -2850,13 +3336,16 @@
       <c r="D38">
         <v>25735</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -2864,13 +3353,16 @@
       <c r="D39">
         <v>11821</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -2878,19 +3370,25 @@
       <c r="D40">
         <v>13181</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>2023</v>
       </c>
       <c r="D41">
         <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2912,13 +3410,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2931,10 +3429,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2942,10 +3443,13 @@
       <c r="D2">
         <v>19984</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2953,10 +3457,13 @@
       <c r="D3">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2964,10 +3471,13 @@
       <c r="D4">
         <v>44984</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2975,10 +3485,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2986,16 +3499,22 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3005,13 +3524,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3024,10 +3543,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3035,10 +3557,13 @@
       <c r="D2">
         <v>19984</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3046,10 +3571,13 @@
       <c r="D3">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3057,10 +3585,13 @@
       <c r="D4">
         <v>44984</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -3068,10 +3599,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3079,16 +3613,22 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3110,13 +3650,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,13 +3669,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3143,13 +3686,16 @@
       <c r="D2">
         <v>10.948</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3157,13 +3703,16 @@
       <c r="D3">
         <v>7127</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3171,13 +3720,16 @@
       <c r="D4">
         <v>-7563</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3185,13 +3737,16 @@
       <c r="D5">
         <v>10512</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3199,13 +3754,16 @@
       <c r="D6">
         <v>10448</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3213,13 +3771,16 @@
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3227,13 +3788,16 @@
       <c r="D8">
         <v>10948</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3241,13 +3805,16 @@
       <c r="D9">
         <v>10012</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3255,13 +3822,16 @@
       <c r="D10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3269,13 +3839,16 @@
       <c r="D11">
         <v>10512</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3283,13 +3856,16 @@
       <c r="D12">
         <v>13786</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3297,13 +3873,16 @@
       <c r="D13">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3311,13 +3890,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3325,13 +3907,16 @@
       <c r="D15">
         <v>13909</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3339,13 +3924,16 @@
       <c r="D16">
         <v>4077</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -3353,13 +3941,16 @@
       <c r="D17">
         <v>9709</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -3367,13 +3958,16 @@
       <c r="D18">
         <v>13786</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3381,13 +3975,16 @@
       <c r="D19">
         <v>1228</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3395,13 +3992,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3409,13 +4009,16 @@
       <c r="D21">
         <v>13.909</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -3423,13 +4026,16 @@
       <c r="D22">
         <v>1001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3437,13 +4043,16 @@
       <c r="D23">
         <v>581</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3451,13 +4060,16 @@
       <c r="D24">
         <v>-1.001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3465,13 +4077,16 @@
       <c r="D25">
         <v>581</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3479,13 +4094,16 @@
       <c r="D26">
         <v>1001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -3493,13 +4111,16 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3507,13 +4128,16 @@
       <c r="D28">
         <v>1001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -3521,13 +4145,16 @@
       <c r="D29">
         <v>581</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -3535,13 +4162,16 @@
       <c r="D30">
         <v>13181</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -3549,13 +4179,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -3563,13 +4196,16 @@
       <c r="D32">
         <v>25735</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -3577,13 +4213,16 @@
       <c r="D33">
         <v>7831</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -3591,13 +4230,16 @@
       <c r="D34">
         <v>-8564</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -3605,13 +4247,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -3619,13 +4264,16 @@
       <c r="D36">
         <v>15526</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -3633,13 +4281,16 @@
       <c r="D37">
         <v>10209</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -3647,13 +4298,16 @@
       <c r="D38">
         <v>25735</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -3661,13 +4315,16 @@
       <c r="D39">
         <v>11821</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -3675,19 +4332,25 @@
       <c r="D40">
         <v>13181</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>2023</v>
       </c>
       <c r="D41">
         <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3697,13 +4360,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3716,10 +4379,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3727,10 +4393,13 @@
       <c r="D2">
         <v>6.462</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3738,10 +4407,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3749,16 +4421,22 @@
       <c r="D4">
         <v>5343</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3792,13 +4470,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3811,13 +4489,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3825,27 +4506,33 @@
       <c r="D2">
         <v>44132</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2023</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -3853,19 +4540,25 @@
       <c r="D4">
         <v>164760</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>164760</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3875,13 +4568,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3894,10 +4587,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3905,10 +4601,13 @@
       <c r="D2">
         <v>24762</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3916,10 +4615,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3927,10 +4629,13 @@
       <c r="D4">
         <v>5152</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3938,10 +4643,13 @@
       <c r="D5">
         <v>14381</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3949,10 +4657,13 @@
       <c r="D6">
         <v>-2032</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3960,10 +4671,13 @@
       <c r="D7">
         <v>12349</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3971,10 +4685,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -3982,10 +4699,13 @@
       <c r="D9">
         <v>21858</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -3993,10 +4713,13 @@
       <c r="D10">
         <v>-19020</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -4004,10 +4727,13 @@
       <c r="D11">
         <v>15382</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -4015,10 +4741,13 @@
       <c r="D12">
         <v>14557</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -4026,10 +4755,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -4037,16 +4769,22 @@
       <c r="D14">
         <v>12544</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>27926</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4068,13 +4806,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4087,13 +4825,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4101,13 +4842,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4115,13 +4859,16 @@
       <c r="D3">
         <v>23438</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4129,13 +4876,16 @@
       <c r="D4">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4143,13 +4893,16 @@
       <c r="D5">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4157,13 +4910,16 @@
       <c r="D6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4171,13 +4927,16 @@
       <c r="D7">
         <v>1262</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4185,13 +4944,16 @@
       <c r="D8">
         <v>24995</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4199,13 +4961,16 @@
       <c r="D9">
         <v>3497</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4213,13 +4978,16 @@
       <c r="D10">
         <v>2279</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4227,13 +4995,16 @@
       <c r="D11">
         <v>5776</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -4241,13 +5012,16 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4255,13 +5029,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -4269,13 +5046,16 @@
       <c r="D14">
         <v>2022</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -4283,13 +5063,16 @@
       <c r="D15">
         <v>19992</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -4297,13 +5080,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -4311,13 +5097,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -4325,13 +5114,16 @@
       <c r="D18">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -4339,13 +5131,16 @@
       <c r="D19">
         <v>1360</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -4353,13 +5148,16 @@
       <c r="D20">
         <v>21380</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -4367,13 +5165,16 @@
       <c r="D21">
         <v>4088</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -4381,13 +5182,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -4395,13 +5199,16 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -4409,19 +5216,25 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>2022</v>
       </c>
       <c r="D25">
         <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4431,13 +5244,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4450,13 +5263,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4464,13 +5280,16 @@
       <c r="D2">
         <v>38600</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4478,13 +5297,16 @@
       <c r="D3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4492,13 +5314,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4506,13 +5331,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4520,13 +5348,16 @@
       <c r="D6">
         <v>38604</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4534,13 +5365,16 @@
       <c r="D7">
         <v>19531</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4548,13 +5382,16 @@
       <c r="D8">
         <v>1918</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4562,13 +5399,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4576,13 +5416,16 @@
       <c r="D10">
         <v>21449</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4590,13 +5433,16 @@
       <c r="D11">
         <v>19069</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -4604,13 +5450,16 @@
       <c r="D12">
         <v>17155</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4618,13 +5467,16 @@
       <c r="D13">
         <v>176989</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -4632,13 +5484,16 @@
       <c r="D14">
         <v>5646</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -4646,13 +5501,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -4660,13 +5518,16 @@
       <c r="D16">
         <v>-537</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -4674,13 +5535,16 @@
       <c r="D17">
         <v>182098</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -4688,13 +5552,16 @@
       <c r="D18">
         <v>122727</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -4702,13 +5569,16 @@
       <c r="D19">
         <v>8909</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -4716,13 +5586,16 @@
       <c r="D20">
         <v>-537</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -4730,13 +5603,16 @@
       <c r="D21">
         <v>131099</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -4744,13 +5620,16 @@
       <c r="D22">
         <v>54262</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -4758,13 +5637,16 @@
       <c r="D23">
         <v>50999</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -4772,13 +5654,16 @@
       <c r="D24">
         <v>184773</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -4786,13 +5671,16 @@
       <c r="D25">
         <v>7669</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -4800,13 +5688,16 @@
       <c r="D26">
         <v>741</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -4814,13 +5705,16 @@
       <c r="D27">
         <v>-8.48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -4828,13 +5722,16 @@
       <c r="D28">
         <v>184703</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -4842,13 +5739,16 @@
       <c r="D29">
         <v>112833</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -4856,13 +5756,16 @@
       <c r="D30">
         <v>11764</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -4870,13 +5773,16 @@
       <c r="D31">
         <v>-8480</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -4884,13 +5790,16 @@
       <c r="D32">
         <v>116117</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -4898,13 +5807,16 @@
       <c r="D33">
         <v>71940</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -4912,13 +5824,16 @@
       <c r="D34">
         <v>68586</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -4926,13 +5841,16 @@
       <c r="D35">
         <v>400362</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -4940,13 +5858,16 @@
       <c r="D36">
         <v>13.319</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -4954,13 +5875,16 @@
       <c r="D37">
         <v>741</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -4968,13 +5892,16 @@
       <c r="D38">
         <v>-9017</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -4982,13 +5909,16 @@
       <c r="D39">
         <v>405405</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -4996,13 +5926,16 @@
       <c r="D40">
         <v>255091</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -5010,13 +5943,16 @@
       <c r="D41">
         <v>22591</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -5024,13 +5960,16 @@
       <c r="D42">
         <v>-9017</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -5038,13 +5977,16 @@
       <c r="D43">
         <v>268665</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -5052,19 +5994,25 @@
       <c r="D44">
         <v>145.271</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>2023</v>
       </c>
       <c r="D45">
         <v>136740</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5074,13 +6022,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5093,13 +6041,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -5107,13 +6058,16 @@
       <c r="D2">
         <v>166523</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5121,13 +6075,16 @@
       <c r="D3">
         <v>93185</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5135,13 +6092,16 @@
       <c r="D4">
         <v>-18975</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5149,13 +6109,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -5163,13 +6126,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -5177,13 +6143,16 @@
       <c r="D7">
         <v>240733</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -5191,13 +6160,16 @@
       <c r="D8">
         <v>65658</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -5205,13 +6177,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -5219,13 +6194,16 @@
       <c r="D10">
         <v>18975</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -5233,13 +6211,16 @@
       <c r="D11">
         <v>29572</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -5247,13 +6228,16 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -5261,13 +6245,16 @@
       <c r="D13">
         <v>114205</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -5275,13 +6262,16 @@
       <c r="D14">
         <v>89451</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -5289,13 +6279,16 @@
       <c r="D15">
         <v>1202</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -5303,13 +6296,16 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -5317,13 +6313,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -5331,13 +6330,16 @@
       <c r="D18">
         <v>-1490</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -5345,13 +6347,16 @@
       <c r="D19">
         <v>89163</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -5359,13 +6364,16 @@
       <c r="D20">
         <v>321632</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -5373,27 +6381,33 @@
       <c r="D21">
         <v>94387</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="C22">
-        <v>2023</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -5401,13 +6415,16 @@
       <c r="D23">
         <v>29572</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -5415,19 +6432,25 @@
       <c r="D24">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>2023</v>
       </c>
       <c r="D25">
         <v>444101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5437,13 +6460,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5456,13 +6479,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -5470,13 +6496,16 @@
       <c r="D2">
         <v>166523</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5484,13 +6513,16 @@
       <c r="D3">
         <v>93185</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5498,13 +6530,16 @@
       <c r="D4">
         <v>-18975</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5512,13 +6547,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -5526,13 +6564,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -5540,13 +6581,16 @@
       <c r="D7">
         <v>240733</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -5554,13 +6598,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -5568,13 +6615,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -5582,27 +6632,33 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
       <c r="C11">
         <v>2023</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -5610,27 +6666,33 @@
       <c r="D12">
         <v>166.523</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="C13">
-        <v>2023</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -5638,13 +6700,16 @@
       <c r="D14">
         <v>65658</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -5652,13 +6717,16 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -5666,13 +6734,16 @@
       <c r="D16">
         <v>18975</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -5680,13 +6751,16 @@
       <c r="D17">
         <v>29572</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -5694,13 +6768,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -5708,13 +6785,16 @@
       <c r="D19">
         <v>114205</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -5722,13 +6802,16 @@
       <c r="D20">
         <v>54506</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -5736,13 +6819,16 @@
       <c r="D21">
         <v>7375</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -5750,13 +6836,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -5764,13 +6853,16 @@
       <c r="D23">
         <v>61881</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -5778,27 +6870,33 @@
       <c r="D24">
         <v>11152</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="C25">
-        <v>2023</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -5806,13 +6904,16 @@
       <c r="D26">
         <v>89451</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -5820,13 +6921,16 @@
       <c r="D27">
         <v>1202</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -5834,13 +6938,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -5848,13 +6955,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -5862,13 +6972,16 @@
       <c r="D30">
         <v>-1490</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -5876,13 +6989,16 @@
       <c r="D31">
         <v>89163</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -5890,13 +7006,16 @@
       <c r="D32">
         <v>72684</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -5904,13 +7023,16 @@
       <c r="D33">
         <v>6032</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -5918,13 +7040,16 @@
       <c r="D34">
         <v>-121</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -5932,13 +7057,16 @@
       <c r="D35">
         <v>78595</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -5946,27 +7074,33 @@
       <c r="D36">
         <v>16767</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>2023</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37">
-        <v>2023</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -5974,13 +7108,16 @@
       <c r="D38">
         <v>321632</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -5988,27 +7125,33 @@
       <c r="D39">
         <v>94387</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>2023</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
-        <v>2023</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -6016,13 +7159,16 @@
       <c r="D41">
         <v>29572</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -6030,13 +7176,16 @@
       <c r="D42">
         <v>-1.49</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -6044,13 +7193,16 @@
       <c r="D43">
         <v>444101</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -6058,13 +7210,16 @@
       <c r="D44">
         <v>127190</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -6072,13 +7227,16 @@
       <c r="D45">
         <v>13407</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -6086,13 +7244,16 @@
       <c r="D46">
         <v>-121</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -6100,13 +7261,16 @@
       <c r="D47">
         <v>140476</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -6114,19 +7278,25 @@
       <c r="D48">
         <v>194442</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
         <v>57</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
       <c r="C49">
         <v>2023</v>
       </c>
       <c r="D49">
         <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
